--- a/WB Groupings List.xlsx
+++ b/WB Groupings List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28900" yWindow="-280" windowWidth="28280" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="-38400" yWindow="-2240" windowWidth="34840" windowHeight="19540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <t>Arab World</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>WB Classifications</t>
+  </si>
+  <si>
+    <t>North America - Empty</t>
   </si>
 </sst>
 </file>
@@ -645,367 +648,383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="B1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="N25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>50</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>52</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>62</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>66</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>68</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>70</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>72</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>74</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>80</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" display="36 countries, 30 in africa. These countries have received the full amount of debt relief for which they are eligible under HIPC and MDRI.."/>
-    <hyperlink ref="C12" r:id="rId2"/>
-    <hyperlink ref="C20" r:id="rId3" display="under UN classification"/>
+    <hyperlink ref="D13" r:id="rId1" display="36 countries, 30 in africa. These countries have received the full amount of debt relief for which they are eligible under HIPC and MDRI.."/>
+    <hyperlink ref="D12" r:id="rId2"/>
+    <hyperlink ref="D20" r:id="rId3" display="under UN classification"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
